--- a/docs/webscrape_info.xlsx
+++ b/docs/webscrape_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrischan/Documents/02_Class/Metis/bootcamp/githubrepo/Metis_proj2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAA6CC9-1FE4-8F47-95C8-85F3024050EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9F1E01-E679-F84F-A3AB-CAD22942A8C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42160" yWindow="500" windowWidth="19200" windowHeight="17240" xr2:uid="{F61874FF-09FE-4F4D-B876-1B4F4F6F5806}"/>
+    <workbookView xWindow="17900" yWindow="4440" windowWidth="19200" windowHeight="15620" xr2:uid="{F61874FF-09FE-4F4D-B876-1B4F4F6F5806}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
   <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
